--- a/ocms/src/test/resources/DownloadedFiles/ConsultTransfer.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/ConsultTransfer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -142,10 +142,7 @@
     <t xml:space="preserve">50004</t>
   </si>
   <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/08/2021 20:58:54</t>
+    <t xml:space="preserve">10/08/2021 11:21:25</t>
   </si>
   <si>
     <t xml:space="preserve">Adam</t>
@@ -154,7 +151,7 @@
     <t xml:space="preserve">50002</t>
   </si>
   <si>
-    <t xml:space="preserve">05/08/2021 20:56:47</t>
+    <t xml:space="preserve">10/08/2021 11:19:13</t>
   </si>
 </sst>
 </file>
@@ -435,27 +432,27 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
